--- a/src/main/WeaponDataBase.xlsx
+++ b/src/main/WeaponDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\Eric\Projects\SurvivorsProject\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FA02F2-EDB7-426F-AD4B-00EA4AA233D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0409A504-F128-4819-B2F3-99FCBDD18036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-1764" windowWidth="23256" windowHeight="13896" xr2:uid="{B4C68D46-E23F-40C7-9807-02D3E76A7B78}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Doom Bringer</t>
   </si>
   <si>
-    <t>res://src/main/scene/role/weapons/Gun/Doombringer/doom_bringer.tscn</t>
-  </si>
-  <si>
     <t>res://src/main/assets/packs/32X32/2 Weapon icons #2/Icons/icon_2_28.png</t>
   </si>
   <si>
@@ -129,6 +126,21 @@
   </si>
   <si>
     <t>FIRE</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/weapons/Firearm/Doombringer/doom_bringer.tscn</t>
+  </si>
+  <si>
+    <t>Fire Guardian</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/weapons/Station/Fire Guardian/fire_guardian.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/assets/packs/32X32/5 Weapon icons #5/Icons/Icon_5_79.png</t>
+  </si>
+  <si>
+    <t>STATION</t>
   </si>
 </sst>
 </file>
@@ -546,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89408E71-4C84-4EA5-9EA6-E4103C7BFC71}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -606,7 +618,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -618,10 +630,10 @@
         <v>-1</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -632,10 +644,10 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -647,10 +659,10 @@
         <v>-1</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -658,13 +670,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -676,10 +688,10 @@
         <v>-1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -687,13 +699,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -705,10 +717,10 @@
         <v>-1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -716,13 +728,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -734,10 +746,39 @@
         <v>-1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>85</v>
+      </c>
+      <c r="G7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/WeaponDataBase.xlsx
+++ b/src/main/WeaponDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\Eric\Projects\SurvivorsProject\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0409A504-F128-4819-B2F3-99FCBDD18036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE280121-4BD5-4C74-8405-DBA21D37B041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-1764" windowWidth="23256" windowHeight="13896" xr2:uid="{B4C68D46-E23F-40C7-9807-02D3E76A7B78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4C68D46-E23F-40C7-9807-02D3E76A7B78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>icon_path</t>
-  </si>
-  <si>
-    <t>level</t>
   </si>
   <si>
     <t>price</t>
@@ -558,7 +555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89408E71-4C84-4EA5-9EA6-E4103C7BFC71}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -570,15 +567,14 @@
     <col min="2" max="2" width="14.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="51.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="56.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="16.625" style="2"/>
+    <col min="5" max="5" width="7.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="16.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,182 +599,161 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="F2" s="2">
-        <v>78</v>
-      </c>
-      <c r="G2" s="2">
         <v>-1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2">
-        <v>1</v>
+        <v>245</v>
       </c>
       <c r="F3" s="2">
-        <v>245</v>
-      </c>
-      <c r="G3" s="2">
         <v>-1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" s="2">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2">
-        <v>39</v>
-      </c>
-      <c r="G4" s="2">
         <v>-1</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E5" s="2">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2">
-        <v>32</v>
-      </c>
-      <c r="G5" s="2">
         <v>-1</v>
       </c>
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="H5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E6" s="2">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="F6" s="2">
-        <v>127</v>
-      </c>
-      <c r="G6" s="2">
         <v>-1</v>
       </c>
+      <c r="G6" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2">
+        <v>85</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>85</v>
-      </c>
-      <c r="G7" s="2">
-        <v>-1</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/WeaponDataBase.xlsx
+++ b/src/main/WeaponDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\Eric\Projects\SurvivorsProject\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE280121-4BD5-4C74-8405-DBA21D37B041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF31B451-D57A-47DA-BEE4-A674E6218489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4C68D46-E23F-40C7-9807-02D3E76A7B78}"/>
+    <workbookView xWindow="4800" yWindow="2775" windowWidth="28800" windowHeight="15345" xr2:uid="{B4C68D46-E23F-40C7-9807-02D3E76A7B78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -138,6 +138,21 @@
   </si>
   <si>
     <t>STATION</t>
+  </si>
+  <si>
+    <t>Storm Axe</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/weapons/Axe/Storm Axe/storm_axe.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/assets/packs/32X32/2 Weapon icons #2/Icons/icon_2_48.png</t>
+  </si>
+  <si>
+    <t>AXE</t>
+  </si>
+  <si>
+    <t>LIGHTING</t>
   </si>
 </sst>
 </file>
@@ -555,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89408E71-4C84-4EA5-9EA6-E4103C7BFC71}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -756,6 +771,32 @@
         <v>28</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2">
+        <v>167</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/WeaponDataBase.xlsx
+++ b/src/main/WeaponDataBase.xlsx
@@ -2,41 +2,30 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\Eric\Projects\SurvivorsProject\src\main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SurvivorProject\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF31B451-D57A-47DA-BEE4-A674E6218489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A60A46F-6904-446C-B292-B5EA897207A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2775" windowWidth="28800" windowHeight="15345" xr2:uid="{B4C68D46-E23F-40C7-9807-02D3E76A7B78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B4C68D46-E23F-40C7-9807-02D3E76A7B78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -98,68 +87,87 @@
     <t>Surtr's Fury</t>
   </si>
   <si>
+    <t>res://src/main/assets/packs/32X32/32 Free Weapon Icons/Icons/Iicon_32_17.png</t>
+  </si>
+  <si>
+    <t>DAGGER</t>
+  </si>
+  <si>
+    <t>FROST</t>
+  </si>
+  <si>
+    <t>SHIELD</t>
+  </si>
+  <si>
+    <t>STAFF</t>
+  </si>
+  <si>
+    <t>FIREARM</t>
+  </si>
+  <si>
+    <t>FIRE</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/weapons/Firearm/Doombringer/doom_bringer.tscn</t>
+  </si>
+  <si>
+    <t>Fire Guardian</t>
+  </si>
+  <si>
+    <t>res://src/main/assets/packs/32X32/5 Weapon icons #5/Icons/Icon_5_79.png</t>
+  </si>
+  <si>
+    <t>STATION</t>
+  </si>
+  <si>
+    <t>Storm Axe</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/weapons/Axe/Storm Axe/storm_axe.tscn</t>
+  </si>
+  <si>
+    <t>res://src/main/assets/packs/32X32/2 Weapon icons #2/Icons/icon_2_48.png</t>
+  </si>
+  <si>
+    <t>AXE</t>
+  </si>
+  <si>
+    <t>LIGHTING</t>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/weapons/Station/Fire Guardian/fire_guardian.tscn</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>res://src/main/scene/role/weapons/Sword/Surtr's Fury/surtr's_fury.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/assets/packs/32X32/32 Free Weapon Icons/Icons/Iicon_32_17.png</t>
-  </si>
-  <si>
-    <t>DAGGER</t>
-  </si>
-  <si>
-    <t>FROST</t>
-  </si>
-  <si>
-    <t>SHIELD</t>
-  </si>
-  <si>
-    <t>STAFF</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://src/main/scene/role/weapons/Sword/Verdant Blade/verdant_blade.tscn</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://src/main/assets/packs/32X32/1 Weapon icons/Icons/icon_09.png</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SWORD</t>
-  </si>
-  <si>
-    <t>FIREARM</t>
-  </si>
-  <si>
-    <t>FIRE</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/weapons/Firearm/Doombringer/doom_bringer.tscn</t>
-  </si>
-  <si>
-    <t>Fire Guardian</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/weapons/Station/Fire Guardian/fire_guardian.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/assets/packs/32X32/5 Weapon icons #5/Icons/Icon_5_79.png</t>
-  </si>
-  <si>
-    <t>STATION</t>
-  </si>
-  <si>
-    <t>Storm Axe</t>
-  </si>
-  <si>
-    <t>res://src/main/scene/role/weapons/Axe/Storm Axe/storm_axe.tscn</t>
-  </si>
-  <si>
-    <t>res://src/main/assets/packs/32X32/2 Weapon icons #2/Icons/icon_2_48.png</t>
-  </si>
-  <si>
-    <t>AXE</t>
-  </si>
-  <si>
-    <t>LIGHTING</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NATURE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verdant Blade</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +196,13 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -570,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89408E71-4C84-4EA5-9EA6-E4103C7BFC71}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -635,10 +650,10 @@
         <v>-1</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -649,7 +664,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -661,10 +676,10 @@
         <v>-1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -687,10 +702,10 @@
         <v>-1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -713,10 +728,10 @@
         <v>-1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -727,10 +742,10 @@
         <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="E6" s="2">
         <v>127</v>
@@ -739,10 +754,10 @@
         <v>-1</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -750,13 +765,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2">
         <v>85</v>
@@ -765,10 +780,10 @@
         <v>-1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -776,13 +791,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2">
         <v>167</v>
@@ -791,13 +806,40 @@
         <v>-1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2">
+        <v>40</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>